--- a/files/02_rekap_kehadiran_1300_400251_PT Pontianak_Juni_2023.xlsx
+++ b/files/02_rekap_kehadiran_1300_400251_PT Pontianak_Juni_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Projects2023\omsyarif\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115564D-ADC1-4740-B960-6796FD618A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19DA964-0DED-42E3-A915-2EFE0DCBBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2052" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Absensi" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Daftar Absensi'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1157,13 +1170,7 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,7 +1190,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:AS95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,88 +1520,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -1610,10 +1623,10 @@
       <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1661,10 +1674,10 @@
       <c r="AS4" s="2"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1712,10 +1725,10 @@
       <c r="AS5" s="2"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1810,16 +1823,16 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4"/>
@@ -1865,10 +1878,10 @@
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="249" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1994,10 +2007,10 @@
       </c>
     </row>
     <row r="10" spans="1:45" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
@@ -2115,10 +2128,10 @@
       <c r="AS10" s="17"/>
     </row>
     <row r="11" spans="1:45" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="10" t="s">
         <v>90</v>
       </c>
@@ -12429,174 +12442,177 @@
       <c r="AS86" s="15"/>
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38" t="s">
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="AA88" s="38" t="s">
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="AA88" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="AB88" s="38"/>
-      <c r="AC88" s="38"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="38"/>
-      <c r="AF88" s="38"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="38"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38" t="s">
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38" t="s">
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
-      <c r="AA89" s="38" t="s">
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="AB89" s="38"/>
-      <c r="AC89" s="38"/>
-      <c r="AD89" s="38"/>
-      <c r="AE89" s="38"/>
-      <c r="AF89" s="38"/>
-      <c r="AG89" s="38"/>
-      <c r="AH89" s="38"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="28"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38" t="s">
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38" t="s">
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="38"/>
-      <c r="AA94" s="38" t="s">
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AB94" s="38"/>
-      <c r="AC94" s="38"/>
-      <c r="AD94" s="38"/>
-      <c r="AE94" s="38"/>
-      <c r="AF94" s="38"/>
-      <c r="AG94" s="38"/>
-      <c r="AH94" s="38"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="28"/>
+      <c r="AH94" s="28"/>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38" t="s">
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38" t="s">
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38" t="s">
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
-      <c r="AF95" s="38"/>
-      <c r="AG95" s="38"/>
-      <c r="AH95" s="38"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="28"/>
+      <c r="AE95" s="28"/>
+      <c r="AF95" s="28"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="28"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="25">
-    <mergeCell ref="P89:Z89"/>
-    <mergeCell ref="P94:Z94"/>
-    <mergeCell ref="P95:Z95"/>
-    <mergeCell ref="AA88:AH88"/>
-    <mergeCell ref="AA89:AH89"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="A1:AS1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B94:D94"/>
@@ -12605,16 +12621,13 @@
     <mergeCell ref="E89:O89"/>
     <mergeCell ref="E94:O94"/>
     <mergeCell ref="E95:O95"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A1:AS1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="P89:Z89"/>
+    <mergeCell ref="P94:Z94"/>
+    <mergeCell ref="P95:Z95"/>
+    <mergeCell ref="AA88:AH88"/>
+    <mergeCell ref="AA89:AH89"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="1" header="0.3" footer="0.3"/>
